--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Mdk-Sdc3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Mdk-Sdc3.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.301656666666667</v>
+        <v>2.856696666666667</v>
       </c>
       <c r="H2">
-        <v>6.90497</v>
+        <v>8.57009</v>
       </c>
       <c r="I2">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="J2">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.41778966666667</v>
+        <v>34.19408466666667</v>
       </c>
       <c r="N2">
-        <v>100.253369</v>
+        <v>102.582254</v>
       </c>
       <c r="O2">
-        <v>0.1572791178915016</v>
+        <v>0.1386014679294276</v>
       </c>
       <c r="P2">
-        <v>0.1572791178915016</v>
+        <v>0.1386014679294276</v>
       </c>
       <c r="Q2">
-        <v>76.91627837154779</v>
+        <v>97.68212768698444</v>
       </c>
       <c r="R2">
-        <v>692.24650534393</v>
+        <v>879.1391491828601</v>
       </c>
       <c r="S2">
-        <v>0.007188722835851654</v>
+        <v>0.007966621316403067</v>
       </c>
       <c r="T2">
-        <v>0.007188722835851652</v>
+        <v>0.007966621316403067</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.301656666666667</v>
+        <v>2.856696666666667</v>
       </c>
       <c r="H3">
-        <v>6.90497</v>
+        <v>8.57009</v>
       </c>
       <c r="I3">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="J3">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>36.38575599999999</v>
+        <v>36.385756</v>
       </c>
       <c r="N3">
         <v>109.157268</v>
       </c>
       <c r="O3">
-        <v>0.1712476996407596</v>
+        <v>0.1474851350016732</v>
       </c>
       <c r="P3">
-        <v>0.1712476996407596</v>
+        <v>0.1474851350016732</v>
       </c>
       <c r="Q3">
-        <v>83.74751786910666</v>
+        <v>103.9430678793467</v>
       </c>
       <c r="R3">
-        <v>753.7276608219599</v>
+        <v>935.4876109141201</v>
       </c>
       <c r="S3">
-        <v>0.007827181799454328</v>
+        <v>0.008477242253705232</v>
       </c>
       <c r="T3">
-        <v>0.007827181799454328</v>
+        <v>0.00847724225370523</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.301656666666667</v>
+        <v>2.856696666666667</v>
       </c>
       <c r="H4">
-        <v>6.90497</v>
+        <v>8.57009</v>
       </c>
       <c r="I4">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="J4">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>69.26638266666667</v>
+        <v>95.47759733333334</v>
       </c>
       <c r="N4">
-        <v>207.799148</v>
+        <v>286.432792</v>
       </c>
       <c r="O4">
-        <v>0.3259986873463135</v>
+        <v>0.3870065619178576</v>
       </c>
       <c r="P4">
-        <v>0.3259986873463135</v>
+        <v>0.3870065619178576</v>
       </c>
       <c r="Q4">
-        <v>159.4274314406178</v>
+        <v>272.7505340434756</v>
       </c>
       <c r="R4">
-        <v>1434.84688296556</v>
+        <v>2454.75480639128</v>
       </c>
       <c r="S4">
-        <v>0.01490035193229384</v>
+        <v>0.02224460369591846</v>
       </c>
       <c r="T4">
-        <v>0.01490035193229384</v>
+        <v>0.02224460369591846</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>2.301656666666667</v>
+        <v>2.856696666666667</v>
       </c>
       <c r="H5">
-        <v>6.90497</v>
+        <v>8.57009</v>
       </c>
       <c r="I5">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="J5">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.434611</v>
+        <v>3.450771666666667</v>
       </c>
       <c r="N5">
-        <v>10.303833</v>
+        <v>10.352315</v>
       </c>
       <c r="O5">
-        <v>0.01616482100607856</v>
+        <v>0.01398727362208118</v>
       </c>
       <c r="P5">
-        <v>0.01616482100607856</v>
+        <v>0.01398727362208118</v>
       </c>
       <c r="Q5">
-        <v>7.905295305556668</v>
+        <v>9.857807917594444</v>
       </c>
       <c r="R5">
-        <v>71.14765775001001</v>
+        <v>88.72027125835001</v>
       </c>
       <c r="S5">
-        <v>0.0007388419992539288</v>
+        <v>0.0008039692065366318</v>
       </c>
       <c r="T5">
-        <v>0.0007388419992539287</v>
+        <v>0.0008039692065366318</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>2.301656666666667</v>
+        <v>2.856696666666667</v>
       </c>
       <c r="H6">
-        <v>6.90497</v>
+        <v>8.57009</v>
       </c>
       <c r="I6">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="J6">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>69.96988266666666</v>
+        <v>77.19974499999999</v>
       </c>
       <c r="N6">
-        <v>209.909648</v>
+        <v>231.599235</v>
       </c>
       <c r="O6">
-        <v>0.3293096741153467</v>
+        <v>0.3129195615289605</v>
       </c>
       <c r="P6">
-        <v>0.3293096741153468</v>
+        <v>0.3129195615289605</v>
       </c>
       <c r="Q6">
-        <v>161.0466469056178</v>
+        <v>220.5362542090166</v>
       </c>
       <c r="R6">
-        <v>1449.41982215056</v>
+        <v>1984.82628788115</v>
       </c>
       <c r="S6">
-        <v>0.01505168649288167</v>
+        <v>0.01798618504145603</v>
       </c>
       <c r="T6">
-        <v>0.01505168649288167</v>
+        <v>0.01798618504145603</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>114.933136</v>
       </c>
       <c r="I7">
-        <v>0.7607888438897402</v>
+        <v>0.7708435061432634</v>
       </c>
       <c r="J7">
-        <v>0.7607888438897401</v>
+        <v>0.7708435061432632</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.41778966666667</v>
+        <v>34.19408466666667</v>
       </c>
       <c r="N7">
-        <v>100.253369</v>
+        <v>102.582254</v>
       </c>
       <c r="O7">
-        <v>0.1572791178915016</v>
+        <v>0.1386014679294276</v>
       </c>
       <c r="P7">
-        <v>0.1572791178915016</v>
+        <v>0.1386014679294276</v>
       </c>
       <c r="Q7">
-        <v>1280.270454859465</v>
+        <v>1310.011127796505</v>
       </c>
       <c r="R7">
-        <v>11522.43409373518</v>
+        <v>11790.10015016855</v>
       </c>
       <c r="S7">
-        <v>0.1196561982686737</v>
+        <v>0.106840041495323</v>
       </c>
       <c r="T7">
-        <v>0.1196561982686737</v>
+        <v>0.106840041495323</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>114.933136</v>
       </c>
       <c r="I8">
-        <v>0.7607888438897402</v>
+        <v>0.7708435061432634</v>
       </c>
       <c r="J8">
-        <v>0.7607888438897401</v>
+        <v>0.7708435061432632</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,16 +930,16 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>36.38575599999999</v>
+        <v>36.385756</v>
       </c>
       <c r="N8">
         <v>109.157268</v>
       </c>
       <c r="O8">
-        <v>0.1712476996407596</v>
+        <v>0.1474851350016732</v>
       </c>
       <c r="P8">
-        <v>0.1712476996407596</v>
+        <v>0.1474851350016732</v>
       </c>
       <c r="Q8">
         <v>1393.976347603605</v>
@@ -948,10 +948,10 @@
         <v>12545.78712843245</v>
       </c>
       <c r="S8">
-        <v>0.130283339428471</v>
+        <v>0.1136879585687023</v>
       </c>
       <c r="T8">
-        <v>0.1302833394284709</v>
+        <v>0.1136879585687023</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>114.933136</v>
       </c>
       <c r="I9">
-        <v>0.7607888438897402</v>
+        <v>0.7708435061432634</v>
       </c>
       <c r="J9">
-        <v>0.7607888438897401</v>
+        <v>0.7708435061432632</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>69.26638266666667</v>
+        <v>95.47759733333334</v>
       </c>
       <c r="N9">
-        <v>207.799148</v>
+        <v>286.432792</v>
       </c>
       <c r="O9">
-        <v>0.3259986873463135</v>
+        <v>0.3870065619178576</v>
       </c>
       <c r="P9">
-        <v>0.3259986873463135</v>
+        <v>0.3870065619178576</v>
       </c>
       <c r="Q9">
-        <v>2653.667526418681</v>
+        <v>3657.846559755079</v>
       </c>
       <c r="R9">
-        <v>23883.00773776813</v>
+        <v>32920.61903779572</v>
       </c>
       <c r="S9">
-        <v>0.2480161644557747</v>
+        <v>0.2983214950892114</v>
       </c>
       <c r="T9">
-        <v>0.2480161644557747</v>
+        <v>0.2983214950892112</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>114.933136</v>
       </c>
       <c r="I10">
-        <v>0.7607888438897402</v>
+        <v>0.7708435061432634</v>
       </c>
       <c r="J10">
-        <v>0.7607888438897401</v>
+        <v>0.7708435061432632</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.434611</v>
+        <v>3.450771666666667</v>
       </c>
       <c r="N10">
-        <v>10.303833</v>
+        <v>10.352315</v>
       </c>
       <c r="O10">
-        <v>0.01616482100607856</v>
+        <v>0.01398727362208118</v>
       </c>
       <c r="P10">
-        <v>0.01616482100607856</v>
+        <v>0.01398727362208118</v>
       </c>
       <c r="Q10">
-        <v>131.5835377233653</v>
+        <v>132.2026697566489</v>
       </c>
       <c r="R10">
-        <v>1184.251839510288</v>
+        <v>1189.82402780984</v>
       </c>
       <c r="S10">
-        <v>0.01229801548489909</v>
+        <v>0.01078199904023024</v>
       </c>
       <c r="T10">
-        <v>0.01229801548489909</v>
+        <v>0.01078199904023024</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>114.933136</v>
       </c>
       <c r="I11">
-        <v>0.7607888438897402</v>
+        <v>0.7708435061432634</v>
       </c>
       <c r="J11">
-        <v>0.7607888438897401</v>
+        <v>0.7708435061432632</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>69.96988266666666</v>
+        <v>77.19974499999999</v>
       </c>
       <c r="N11">
-        <v>209.909648</v>
+        <v>231.599235</v>
       </c>
       <c r="O11">
-        <v>0.3293096741153467</v>
+        <v>0.3129195615289605</v>
       </c>
       <c r="P11">
-        <v>0.3293096741153468</v>
+        <v>0.3129195615289605</v>
       </c>
       <c r="Q11">
-        <v>2680.619346810681</v>
+        <v>2957.602930416773</v>
       </c>
       <c r="R11">
-        <v>24125.57412129613</v>
+        <v>26618.42637375096</v>
       </c>
       <c r="S11">
-        <v>0.2505351262519218</v>
+        <v>0.2412120119497966</v>
       </c>
       <c r="T11">
-        <v>0.2505351262519218</v>
+        <v>0.2412120119497965</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>3.949784666666666</v>
+        <v>2.081608</v>
       </c>
       <c r="H12">
-        <v>11.849354</v>
+        <v>6.244823999999999</v>
       </c>
       <c r="I12">
-        <v>0.07843565958645962</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="J12">
-        <v>0.07843565958645961</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.41778966666667</v>
+        <v>34.19408466666667</v>
       </c>
       <c r="N12">
-        <v>100.253369</v>
+        <v>102.582254</v>
       </c>
       <c r="O12">
-        <v>0.1572791178915016</v>
+        <v>0.1386014679294276</v>
       </c>
       <c r="P12">
-        <v>0.1572791178915016</v>
+        <v>0.1386014679294276</v>
       </c>
       <c r="Q12">
-        <v>131.9930732192918</v>
+        <v>71.17868019481065</v>
       </c>
       <c r="R12">
-        <v>1187.937658973626</v>
+        <v>640.608121753296</v>
       </c>
       <c r="S12">
-        <v>0.01233629135099647</v>
+        <v>0.00580509049445052</v>
       </c>
       <c r="T12">
-        <v>0.01233629135099647</v>
+        <v>0.00580509049445052</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>3.949784666666666</v>
+        <v>2.081608</v>
       </c>
       <c r="H13">
-        <v>11.849354</v>
+        <v>6.244823999999999</v>
       </c>
       <c r="I13">
-        <v>0.07843565958645962</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="J13">
-        <v>0.07843565958645961</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>36.38575599999999</v>
+        <v>36.385756</v>
       </c>
       <c r="N13">
         <v>109.157268</v>
       </c>
       <c r="O13">
-        <v>0.1712476996407596</v>
+        <v>0.1474851350016732</v>
       </c>
       <c r="P13">
-        <v>0.1712476996407596</v>
+        <v>0.1474851350016732</v>
       </c>
       <c r="Q13">
-        <v>143.7159011338746</v>
+        <v>75.74088077564799</v>
       </c>
       <c r="R13">
-        <v>1293.443110204872</v>
+        <v>681.6679269808319</v>
       </c>
       <c r="S13">
-        <v>0.0134319262739869</v>
+        <v>0.006177168020376975</v>
       </c>
       <c r="T13">
-        <v>0.0134319262739869</v>
+        <v>0.006177168020376974</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>3.949784666666666</v>
+        <v>2.081608</v>
       </c>
       <c r="H14">
-        <v>11.849354</v>
+        <v>6.244823999999999</v>
       </c>
       <c r="I14">
-        <v>0.07843565958645962</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="J14">
-        <v>0.07843565958645961</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>69.26638266666667</v>
+        <v>95.47759733333334</v>
       </c>
       <c r="N14">
-        <v>207.799148</v>
+        <v>286.432792</v>
       </c>
       <c r="O14">
-        <v>0.3259986873463135</v>
+        <v>0.3870065619178576</v>
       </c>
       <c r="P14">
-        <v>0.3259986873463135</v>
+        <v>0.3870065619178576</v>
       </c>
       <c r="Q14">
-        <v>273.5872961722658</v>
+        <v>198.7469304298453</v>
       </c>
       <c r="R14">
-        <v>2462.285665550392</v>
+        <v>1788.722373868608</v>
       </c>
       <c r="S14">
-        <v>0.02556992206632813</v>
+        <v>0.01620912207815324</v>
       </c>
       <c r="T14">
-        <v>0.02556992206632812</v>
+        <v>0.01620912207815323</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>3.949784666666666</v>
+        <v>2.081608</v>
       </c>
       <c r="H15">
-        <v>11.849354</v>
+        <v>6.244823999999999</v>
       </c>
       <c r="I15">
-        <v>0.07843565958645962</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="J15">
-        <v>0.07843565958645961</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.434611</v>
+        <v>3.450771666666667</v>
       </c>
       <c r="N15">
-        <v>10.303833</v>
+        <v>10.352315</v>
       </c>
       <c r="O15">
-        <v>0.01616482100607856</v>
+        <v>0.01398727362208118</v>
       </c>
       <c r="P15">
-        <v>0.01616482100607856</v>
+        <v>0.01398727362208118</v>
       </c>
       <c r="Q15">
-        <v>13.56597386376467</v>
+        <v>7.183153907506666</v>
       </c>
       <c r="R15">
-        <v>122.093764773882</v>
+        <v>64.64838516755999</v>
       </c>
       <c r="S15">
-        <v>0.001267898397708829</v>
+        <v>0.000585833543899879</v>
       </c>
       <c r="T15">
-        <v>0.001267898397708829</v>
+        <v>0.000585833543899879</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>3.949784666666666</v>
+        <v>2.081608</v>
       </c>
       <c r="H16">
-        <v>11.849354</v>
+        <v>6.244823999999999</v>
       </c>
       <c r="I16">
-        <v>0.07843565958645962</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="J16">
-        <v>0.07843565958645961</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>69.96988266666666</v>
+        <v>77.19974499999999</v>
       </c>
       <c r="N16">
-        <v>209.909648</v>
+        <v>231.599235</v>
       </c>
       <c r="O16">
-        <v>0.3293096741153467</v>
+        <v>0.3129195615289605</v>
       </c>
       <c r="P16">
-        <v>0.3293096741153468</v>
+        <v>0.3129195615289605</v>
       </c>
       <c r="Q16">
-        <v>276.3659696852657</v>
+        <v>160.69960678996</v>
       </c>
       <c r="R16">
-        <v>2487.293727167392</v>
+        <v>1446.29646110964</v>
       </c>
       <c r="S16">
-        <v>0.02582962149743929</v>
+        <v>0.01310611207295671</v>
       </c>
       <c r="T16">
-        <v>0.02582962149743929</v>
+        <v>0.01310611207295671</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.052037666666667</v>
+        <v>4.573220666666667</v>
       </c>
       <c r="H17">
-        <v>9.156113</v>
+        <v>13.719662</v>
       </c>
       <c r="I17">
-        <v>0.0606080097196149</v>
+        <v>0.09201621679565497</v>
       </c>
       <c r="J17">
-        <v>0.06060800971961489</v>
+        <v>0.09201621679565496</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>33.41778966666667</v>
+        <v>34.19408466666667</v>
       </c>
       <c r="N17">
-        <v>100.253369</v>
+        <v>102.582254</v>
       </c>
       <c r="O17">
-        <v>0.1572791178915016</v>
+        <v>0.1386014679294276</v>
       </c>
       <c r="P17">
-        <v>0.1572791178915016</v>
+        <v>0.1386014679294276</v>
       </c>
       <c r="Q17">
-        <v>101.9923527994108</v>
+        <v>156.3770946753498</v>
       </c>
       <c r="R17">
-        <v>917.9311751946971</v>
+        <v>1407.393852078148</v>
       </c>
       <c r="S17">
-        <v>0.00953237430586059</v>
+        <v>0.01275358272119023</v>
       </c>
       <c r="T17">
-        <v>0.009532374305860587</v>
+        <v>0.01275358272119023</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.052037666666667</v>
+        <v>4.573220666666667</v>
       </c>
       <c r="H18">
-        <v>9.156113</v>
+        <v>13.719662</v>
       </c>
       <c r="I18">
-        <v>0.0606080097196149</v>
+        <v>0.09201621679565497</v>
       </c>
       <c r="J18">
-        <v>0.06060800971961489</v>
+        <v>0.09201621679565496</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>36.38575599999999</v>
+        <v>36.385756</v>
       </c>
       <c r="N18">
         <v>109.157268</v>
       </c>
       <c r="O18">
-        <v>0.1712476996407596</v>
+        <v>0.1474851350016732</v>
       </c>
       <c r="P18">
-        <v>0.1712476996407596</v>
+        <v>0.1474851350016732</v>
       </c>
       <c r="Q18">
-        <v>111.0506978421426</v>
+        <v>166.4000913114907</v>
       </c>
       <c r="R18">
-        <v>999.4562805792839</v>
+        <v>1497.600821803416</v>
       </c>
       <c r="S18">
-        <v>0.01037898224428885</v>
+        <v>0.0135710241564504</v>
       </c>
       <c r="T18">
-        <v>0.01037898224428885</v>
+        <v>0.0135710241564504</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.052037666666667</v>
+        <v>4.573220666666667</v>
       </c>
       <c r="H19">
-        <v>9.156113</v>
+        <v>13.719662</v>
       </c>
       <c r="I19">
-        <v>0.0606080097196149</v>
+        <v>0.09201621679565497</v>
       </c>
       <c r="J19">
-        <v>0.06060800971961489</v>
+        <v>0.09201621679565496</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>69.26638266666667</v>
+        <v>95.47759733333334</v>
       </c>
       <c r="N19">
-        <v>207.799148</v>
+        <v>286.432792</v>
       </c>
       <c r="O19">
-        <v>0.3259986873463135</v>
+        <v>0.3870065619178576</v>
       </c>
       <c r="P19">
-        <v>0.3259986873463135</v>
+        <v>0.3870065619178576</v>
       </c>
       <c r="Q19">
-        <v>211.4036089324138</v>
+        <v>436.6401213284782</v>
       </c>
       <c r="R19">
-        <v>1902.632480391724</v>
+        <v>3929.761091956304</v>
       </c>
       <c r="S19">
-        <v>0.01975813161126707</v>
+        <v>0.03561087970277466</v>
       </c>
       <c r="T19">
-        <v>0.01975813161126706</v>
+        <v>0.03561087970277465</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.052037666666667</v>
+        <v>4.573220666666667</v>
       </c>
       <c r="H20">
-        <v>9.156113</v>
+        <v>13.719662</v>
       </c>
       <c r="I20">
-        <v>0.0606080097196149</v>
+        <v>0.09201621679565497</v>
       </c>
       <c r="J20">
-        <v>0.06060800971961489</v>
+        <v>0.09201621679565496</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.434611</v>
+        <v>3.450771666666667</v>
       </c>
       <c r="N20">
-        <v>10.303833</v>
+        <v>10.352315</v>
       </c>
       <c r="O20">
-        <v>0.01616482100607856</v>
+        <v>0.01398727362208118</v>
       </c>
       <c r="P20">
-        <v>0.01616482100607856</v>
+        <v>0.01398727362208118</v>
       </c>
       <c r="Q20">
-        <v>10.48256214234767</v>
+        <v>15.78114030194778</v>
       </c>
       <c r="R20">
-        <v>94.343059281129</v>
+        <v>142.03026271753</v>
       </c>
       <c r="S20">
-        <v>0.0009797176286522444</v>
+        <v>0.001287056001989568</v>
       </c>
       <c r="T20">
-        <v>0.0009797176286522442</v>
+        <v>0.001287056001989568</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.052037666666667</v>
+        <v>4.573220666666667</v>
       </c>
       <c r="H21">
-        <v>9.156113</v>
+        <v>13.719662</v>
       </c>
       <c r="I21">
-        <v>0.0606080097196149</v>
+        <v>0.09201621679565497</v>
       </c>
       <c r="J21">
-        <v>0.06060800971961489</v>
+        <v>0.09201621679565496</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>69.96988266666666</v>
+        <v>77.19974499999999</v>
       </c>
       <c r="N21">
-        <v>209.909648</v>
+        <v>231.599235</v>
       </c>
       <c r="O21">
-        <v>0.3293096741153467</v>
+        <v>0.3129195615289605</v>
       </c>
       <c r="P21">
-        <v>0.3293096741153468</v>
+        <v>0.3129195615289605</v>
       </c>
       <c r="Q21">
-        <v>213.5507174309138</v>
+        <v>353.0514692953967</v>
       </c>
       <c r="R21">
-        <v>1921.956456878224</v>
+        <v>3177.46322365857</v>
       </c>
       <c r="S21">
-        <v>0.01995880392954615</v>
+        <v>0.02879367421325012</v>
       </c>
       <c r="T21">
-        <v>0.01995880392954615</v>
+        <v>0.02879367421325012</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.742477666666666</v>
+        <v>1.877589</v>
       </c>
       <c r="H22">
-        <v>8.227433</v>
+        <v>5.632767</v>
       </c>
       <c r="I22">
-        <v>0.05446070174444989</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="J22">
-        <v>0.05446070174444988</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>33.41778966666667</v>
+        <v>34.19408466666667</v>
       </c>
       <c r="N22">
-        <v>100.253369</v>
+        <v>102.582254</v>
       </c>
       <c r="O22">
-        <v>0.1572791178915016</v>
+        <v>0.1386014679294276</v>
       </c>
       <c r="P22">
-        <v>0.1572791178915016</v>
+        <v>0.1386014679294276</v>
       </c>
       <c r="Q22">
-        <v>91.64754183019744</v>
+        <v>64.20243723520201</v>
       </c>
       <c r="R22">
-        <v>824.827876471777</v>
+        <v>577.8219351168181</v>
       </c>
       <c r="S22">
-        <v>0.008565531130119243</v>
+        <v>0.005236131902060744</v>
       </c>
       <c r="T22">
-        <v>0.008565531130119243</v>
+        <v>0.005236131902060743</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.742477666666666</v>
+        <v>1.877589</v>
       </c>
       <c r="H23">
-        <v>8.227433</v>
+        <v>5.632767</v>
       </c>
       <c r="I23">
-        <v>0.05446070174444989</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="J23">
-        <v>0.05446070174444988</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>36.38575599999999</v>
+        <v>36.385756</v>
       </c>
       <c r="N23">
         <v>109.157268</v>
       </c>
       <c r="O23">
-        <v>0.1712476996407596</v>
+        <v>0.1474851350016732</v>
       </c>
       <c r="P23">
-        <v>0.1712476996407596</v>
+        <v>0.1474851350016732</v>
       </c>
       <c r="Q23">
-        <v>99.78712321478264</v>
+        <v>68.31749522228401</v>
       </c>
       <c r="R23">
-        <v>898.0841089330438</v>
+        <v>614.857457000556</v>
       </c>
       <c r="S23">
-        <v>0.009326269894558545</v>
+        <v>0.005571742002438301</v>
       </c>
       <c r="T23">
-        <v>0.009326269894558543</v>
+        <v>0.005571742002438299</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.742477666666666</v>
+        <v>1.877589</v>
       </c>
       <c r="H24">
-        <v>8.227433</v>
+        <v>5.632767</v>
       </c>
       <c r="I24">
-        <v>0.05446070174444989</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="J24">
-        <v>0.05446070174444988</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>69.26638266666667</v>
+        <v>95.47759733333334</v>
       </c>
       <c r="N24">
-        <v>207.799148</v>
+        <v>286.432792</v>
       </c>
       <c r="O24">
-        <v>0.3259986873463135</v>
+        <v>0.3870065619178576</v>
       </c>
       <c r="P24">
-        <v>0.3259986873463135</v>
+        <v>0.3870065619178576</v>
       </c>
       <c r="Q24">
-        <v>189.9615075141204</v>
+        <v>179.267686499496</v>
       </c>
       <c r="R24">
-        <v>1709.653567627084</v>
+        <v>1613.409178495464</v>
       </c>
       <c r="S24">
-        <v>0.01775411728064975</v>
+        <v>0.01462046135179999</v>
       </c>
       <c r="T24">
-        <v>0.01775411728064975</v>
+        <v>0.01462046135179998</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.742477666666666</v>
+        <v>1.877589</v>
       </c>
       <c r="H25">
-        <v>8.227433</v>
+        <v>5.632767</v>
       </c>
       <c r="I25">
-        <v>0.05446070174444989</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="J25">
-        <v>0.05446070174444988</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.434611</v>
+        <v>3.450771666666667</v>
       </c>
       <c r="N25">
-        <v>10.303833</v>
+        <v>10.352315</v>
       </c>
       <c r="O25">
-        <v>0.01616482100607856</v>
+        <v>0.01398727362208118</v>
       </c>
       <c r="P25">
-        <v>0.01616482100607856</v>
+        <v>0.01398727362208118</v>
       </c>
       <c r="Q25">
-        <v>9.419343961187666</v>
+        <v>6.479130922845001</v>
       </c>
       <c r="R25">
-        <v>84.77409565068901</v>
+        <v>58.31217830560501</v>
       </c>
       <c r="S25">
-        <v>0.0008803474955644627</v>
+        <v>0.0005284158294248631</v>
       </c>
       <c r="T25">
-        <v>0.0008803474955644626</v>
+        <v>0.000528415829424863</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.742477666666666</v>
+        <v>1.877589</v>
       </c>
       <c r="H26">
-        <v>8.227433</v>
+        <v>5.632767</v>
       </c>
       <c r="I26">
-        <v>0.05446070174444989</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="J26">
-        <v>0.05446070174444988</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>69.96988266666666</v>
+        <v>77.19974499999999</v>
       </c>
       <c r="N26">
-        <v>209.909648</v>
+        <v>231.599235</v>
       </c>
       <c r="O26">
-        <v>0.3293096741153467</v>
+        <v>0.3129195615289605</v>
       </c>
       <c r="P26">
-        <v>0.3293096741153468</v>
+        <v>0.3129195615289605</v>
       </c>
       <c r="Q26">
-        <v>191.8908405526204</v>
+        <v>144.949392014805</v>
       </c>
       <c r="R26">
-        <v>1727.017564973584</v>
+        <v>1304.544528133245</v>
       </c>
       <c r="S26">
-        <v>0.01793443594355789</v>
+        <v>0.01182157825150111</v>
       </c>
       <c r="T26">
-        <v>0.01793443594355789</v>
+        <v>0.01182157825150111</v>
       </c>
     </row>
   </sheetData>
